--- a/Sprint_01/Team4Report.xlsx
+++ b/Sprint_01/Team4Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patel\Desktop\GEDCOM_Team4\Sprint_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6703DB72-5254-4446-96FF-9CBD3EC89F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF8CF97-8610-42A8-96CA-282693B3135B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="188">
   <si>
     <t>Initials</t>
   </si>
@@ -601,6 +601,9 @@
   <si>
     <t>Complete</t>
   </si>
+  <si>
+    <t>Yes</t>
+  </si>
 </sst>
 </file>
 
@@ -610,7 +613,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -665,6 +668,12 @@
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -711,13 +720,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -751,10 +761,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{42939A38-F1D5-4E00-BA9E-76D2C9421B42}"/>
+    <cellStyle name="Hyperlink 3" xfId="4" xr:uid="{89CC29F5-F39E-44CC-8283-F74B209A39BB}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{987EC1BF-6F45-4EEA-A19E-17B8E5F2D3DC}"/>
   </cellStyles>
@@ -4743,7 +4757,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8914,7 +8930,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8990,9 +9006,16 @@
       <c r="C3" s="2">
         <v>8</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5"/>
+      <c r="D3" s="2">
+        <v>240</v>
+      </c>
+      <c r="E3" s="2">
+        <v>120</v>
+      </c>
+      <c r="F3" s="5">
+        <f>(D3-D2)/E3*60</f>
+        <v>120</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
@@ -12994,7 +13017,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13039,7 +13062,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
         <v>43</v>
       </c>
@@ -13058,9 +13081,15 @@
       <c r="F2" s="19">
         <v>120</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="4"/>
+      <c r="G2" s="24">
+        <v>26</v>
+      </c>
+      <c r="H2" s="24">
+        <v>60</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -13081,7 +13110,15 @@
       <c r="F3" s="19">
         <v>120</v>
       </c>
-      <c r="I3" s="4"/>
+      <c r="G3" s="24">
+        <v>24</v>
+      </c>
+      <c r="H3" s="24">
+        <v>60</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
@@ -13102,7 +13139,15 @@
       <c r="F4" s="19">
         <v>120</v>
       </c>
-      <c r="I4" s="4"/>
+      <c r="G4" s="24">
+        <v>100</v>
+      </c>
+      <c r="H4" s="24">
+        <v>125</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -13123,7 +13168,15 @@
       <c r="F5" s="19">
         <v>120</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="G5" s="24">
+        <v>25</v>
+      </c>
+      <c r="H5" s="24">
+        <v>60</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
@@ -13144,7 +13197,15 @@
       <c r="F6" s="19">
         <v>150</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="G6" s="24">
+        <v>15</v>
+      </c>
+      <c r="H6" s="24">
+        <v>60</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -13165,7 +13226,15 @@
       <c r="F7" s="19">
         <v>120</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="G7" s="24">
+        <v>14</v>
+      </c>
+      <c r="H7" s="24">
+        <v>30</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
@@ -13186,7 +13255,15 @@
       <c r="F8" s="19">
         <v>120</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="G8" s="24">
+        <v>32</v>
+      </c>
+      <c r="H8" s="24">
+        <v>30</v>
+      </c>
+      <c r="I8" s="23" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
@@ -13207,7 +13284,15 @@
       <c r="F9" s="19">
         <v>120</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="G9" s="24">
+        <v>22</v>
+      </c>
+      <c r="H9" s="24">
+        <v>30</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
@@ -17197,7 +17282,7 @@
   <dimension ref="A1:I1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E2" sqref="E2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -17249,6 +17334,12 @@
       <c r="D2" s="20" t="s">
         <v>181</v>
       </c>
+      <c r="E2" s="25">
+        <v>30</v>
+      </c>
+      <c r="F2" s="25">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
@@ -17263,6 +17354,12 @@
       <c r="D3" s="20" t="s">
         <v>181</v>
       </c>
+      <c r="E3" s="25">
+        <v>30</v>
+      </c>
+      <c r="F3" s="25">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="22" t="s">
@@ -17277,6 +17374,12 @@
       <c r="D4" s="20" t="s">
         <v>181</v>
       </c>
+      <c r="E4" s="25">
+        <v>40</v>
+      </c>
+      <c r="F4" s="25">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
@@ -17291,6 +17394,12 @@
       <c r="D5" s="20" t="s">
         <v>181</v>
       </c>
+      <c r="E5" s="25">
+        <v>40</v>
+      </c>
+      <c r="F5" s="25">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
@@ -17305,6 +17414,12 @@
       <c r="D6" s="20" t="s">
         <v>181</v>
       </c>
+      <c r="E6" s="25">
+        <v>40</v>
+      </c>
+      <c r="F6" s="25">
+        <v>80</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
@@ -17319,6 +17434,12 @@
       <c r="D7" s="20" t="s">
         <v>181</v>
       </c>
+      <c r="E7" s="25">
+        <v>40</v>
+      </c>
+      <c r="F7" s="25">
+        <v>80</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
@@ -17333,6 +17454,12 @@
       <c r="D8" s="20" t="s">
         <v>181</v>
       </c>
+      <c r="E8" s="25">
+        <v>40</v>
+      </c>
+      <c r="F8" s="25">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
@@ -17346,6 +17473,12 @@
       </c>
       <c r="D9" s="20" t="s">
         <v>181</v>
+      </c>
+      <c r="E9" s="25">
+        <v>40</v>
+      </c>
+      <c r="F9" s="25">
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
